--- a/tableau_de_synthese.xlsx
+++ b/tableau_de_synthese.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinapplaincourt/Desktop/portfolio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1149C09-E3B9-4646-8A39-BEDB0FA63598}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3F2798-E69C-8345-ACED-DDE15FB307A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4760" yWindow="1960" windowWidth="25600" windowHeight="14420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -116,9 +116,6 @@
     <t>Réalisations en milieu professionnel en cours de seconde année</t>
   </si>
   <si>
-    <t>Adresse URL du portfolio :</t>
-  </si>
-  <si>
     <t>NOM et prénom : APPLAINCOURT Robin</t>
   </si>
   <si>
@@ -173,9 +170,6 @@
     <t>02/04/2022 au 22/04/2022</t>
   </si>
   <si>
-    <t>Développement d'une API (Javascript)</t>
-  </si>
-  <si>
     <t>Dévelopement d'une application mobile (Flutter)</t>
   </si>
   <si>
@@ -186,6 +180,27 @@
   </si>
   <si>
     <t>14/03/2023 au 24/03/2023</t>
+  </si>
+  <si>
+    <t>Adresse URL du portfolio : https://apl15.github.io/portolio-robin/</t>
+  </si>
+  <si>
+    <t>Développement d'une API (NodeJS)</t>
+  </si>
+  <si>
+    <t>01/11/2022 au 07/02/2022</t>
+  </si>
+  <si>
+    <t>02/02/2023 au 28/04/2023</t>
+  </si>
+  <si>
+    <t>02/04/2023 au 28/04/2023</t>
+  </si>
+  <si>
+    <t>06/03/2023 au 20/05/2023</t>
+  </si>
+  <si>
+    <t>05/02/2022 au 15/03/2022</t>
   </si>
 </sst>
 </file>
@@ -195,7 +210,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -682,7 +697,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -851,6 +866,9 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1196,11 +1214,11 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="88" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="89" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="70.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="1" customWidth="1"/>
@@ -1209,7 +1227,7 @@
     <col min="44" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:43" ht="40" customHeight="1">
       <c r="A1" s="28" t="s">
         <v>7</v>
       </c>
@@ -1219,11 +1237,11 @@
       <c r="E1" s="28"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H1" s="28"/>
     </row>
-    <row r="2" spans="1:43" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:43" ht="41" customHeight="1" thickBot="1">
       <c r="A2" s="28" t="s">
         <v>6</v>
       </c>
@@ -1235,16 +1253,16 @@
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
-    <row r="3" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:43" ht="40" customHeight="1">
       <c r="A3" s="29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
       <c r="E3" s="31"/>
       <c r="F3" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" s="30"/>
       <c r="H3" s="36"/>
@@ -1252,9 +1270,9 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:43" ht="40" customHeight="1">
       <c r="A4" s="32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="33"/>
       <c r="C4" s="33"/>
@@ -1267,12 +1285,12 @@
         <v>15</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" ht="40" customHeight="1" thickBot="1">
       <c r="A5" s="47" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="B5" s="48"/>
       <c r="C5" s="48"/>
@@ -1282,7 +1300,7 @@
       <c r="G5" s="48"/>
       <c r="H5" s="49"/>
     </row>
-    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:43" ht="90" customHeight="1">
       <c r="A6" s="37" t="s">
         <v>17</v>
       </c>
@@ -1308,7 +1326,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:43" s="2" customFormat="1" ht="325" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:43" s="2" customFormat="1" ht="325" customHeight="1" thickBot="1">
       <c r="A7" s="38"/>
       <c r="B7" s="46"/>
       <c r="C7" s="23" t="s">
@@ -1365,7 +1383,7 @@
       <c r="AP7"/>
       <c r="AQ7"/>
     </row>
-    <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:43" s="2" customFormat="1" ht="18">
       <c r="A8" s="39" t="s">
         <v>16</v>
       </c>
@@ -1412,17 +1430,17 @@
       <c r="AP8"/>
       <c r="AQ8"/>
     </row>
-    <row r="9" spans="1:43" s="2" customFormat="1" ht="76" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:43" s="2" customFormat="1" ht="76" customHeight="1">
       <c r="A9" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="16"/>
       <c r="E9" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
@@ -1463,21 +1481,21 @@
       <c r="AP9"/>
       <c r="AQ9"/>
     </row>
-    <row r="10" spans="1:43" s="2" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:43" s="2" customFormat="1" ht="81" customHeight="1">
       <c r="A10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="52" t="s">
         <v>33</v>
-      </c>
-      <c r="B10" s="52" t="s">
-        <v>34</v>
       </c>
       <c r="C10" s="26"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H10" s="17"/>
       <c r="I10"/>
@@ -1516,9 +1534,9 @@
       <c r="AP10"/>
       <c r="AQ10"/>
     </row>
-    <row r="11" spans="1:43" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:43" s="2" customFormat="1" ht="75" customHeight="1">
       <c r="A11" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="53">
         <v>44464</v>
@@ -1529,7 +1547,7 @@
       <c r="F11" s="26"/>
       <c r="G11" s="16"/>
       <c r="H11" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I11"/>
       <c r="J11"/>
@@ -1567,19 +1585,19 @@
       <c r="AP11"/>
       <c r="AQ11"/>
     </row>
-    <row r="12" spans="1:43" s="2" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:43" s="2" customFormat="1" ht="80" customHeight="1">
       <c r="A12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="54" t="s">
         <v>35</v>
-      </c>
-      <c r="B12" s="54" t="s">
-        <v>36</v>
       </c>
       <c r="C12" s="26"/>
       <c r="D12" s="16"/>
       <c r="E12" s="26"/>
       <c r="F12" s="16"/>
       <c r="G12" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H12" s="17"/>
       <c r="I12"/>
@@ -1618,12 +1636,12 @@
       <c r="AP12"/>
       <c r="AQ12"/>
     </row>
-    <row r="13" spans="1:43" s="2" customFormat="1" ht="79" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:43" s="2" customFormat="1" ht="79" customHeight="1">
       <c r="A13" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="55" t="s">
         <v>38</v>
-      </c>
-      <c r="B13" s="55" t="s">
-        <v>39</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
@@ -1631,7 +1649,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
       <c r="H13" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
@@ -1669,21 +1687,23 @@
       <c r="AP13"/>
       <c r="AQ13"/>
     </row>
-    <row r="14" spans="1:43" s="2" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:43" s="2" customFormat="1" ht="80" customHeight="1">
       <c r="A14" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="8"/>
+        <v>44</v>
+      </c>
+      <c r="B14" s="55" t="s">
+        <v>45</v>
+      </c>
       <c r="C14" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H14" s="17"/>
       <c r="I14"/>
@@ -1722,17 +1742,23 @@
       <c r="AP14"/>
       <c r="AQ14"/>
     </row>
-    <row r="15" spans="1:43" s="2" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:43" s="2" customFormat="1" ht="80" customHeight="1">
       <c r="A15" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="16"/>
+        <v>39</v>
+      </c>
+      <c r="B15" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>25</v>
+      </c>
       <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
+      <c r="E15" s="26" t="s">
+        <v>25</v>
+      </c>
       <c r="F15" s="16"/>
       <c r="G15" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H15" s="17"/>
       <c r="I15"/>
@@ -1771,17 +1797,19 @@
       <c r="AP15"/>
       <c r="AQ15"/>
     </row>
-    <row r="16" spans="1:43" s="2" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:43" s="2" customFormat="1" ht="81" customHeight="1">
       <c r="A16" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="8"/>
+        <v>40</v>
+      </c>
+      <c r="B16" s="55" t="s">
+        <v>47</v>
+      </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
       <c r="G16" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H16" s="17"/>
       <c r="I16"/>
@@ -1820,25 +1848,25 @@
       <c r="AP16"/>
       <c r="AQ16"/>
     </row>
-    <row r="17" spans="1:43" s="2" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:43" s="2" customFormat="1" ht="81" customHeight="1">
       <c r="A17" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E17" s="16"/>
       <c r="F17" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H17" s="17"/>
       <c r="I17"/>
@@ -1877,7 +1905,7 @@
       <c r="AP17"/>
       <c r="AQ17"/>
     </row>
-    <row r="18" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1">
       <c r="A18" s="10"/>
       <c r="B18" s="8"/>
       <c r="C18" s="16"/>
@@ -1922,7 +1950,7 @@
       <c r="AP18"/>
       <c r="AQ18"/>
     </row>
-    <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:43" s="2" customFormat="1" ht="18">
       <c r="A19" s="42" t="s">
         <v>19</v>
       </c>
@@ -1969,17 +1997,19 @@
       <c r="AP19"/>
       <c r="AQ19"/>
     </row>
-    <row r="20" spans="1:43" s="2" customFormat="1" ht="71" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:43" s="2" customFormat="1" ht="71" customHeight="1">
       <c r="A20" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="8"/>
+        <v>26</v>
+      </c>
+      <c r="B20" s="57" t="s">
+        <v>49</v>
+      </c>
       <c r="C20" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
@@ -2020,7 +2050,7 @@
       <c r="AP20"/>
       <c r="AQ20"/>
     </row>
-    <row r="21" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1">
       <c r="A21" s="10"/>
       <c r="B21" s="50"/>
       <c r="C21" s="16"/>
@@ -2065,7 +2095,7 @@
       <c r="AP21"/>
       <c r="AQ21"/>
     </row>
-    <row r="22" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1">
       <c r="A22" s="10"/>
       <c r="B22" s="8"/>
       <c r="C22" s="16"/>
@@ -2110,7 +2140,7 @@
       <c r="AP22"/>
       <c r="AQ22"/>
     </row>
-    <row r="23" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1">
       <c r="A23" s="10"/>
       <c r="B23" s="8"/>
       <c r="C23" s="16"/>
@@ -2155,7 +2185,7 @@
       <c r="AP23"/>
       <c r="AQ23"/>
     </row>
-    <row r="24" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1">
       <c r="A24" s="10"/>
       <c r="B24" s="8"/>
       <c r="C24" s="16"/>
@@ -2200,7 +2230,7 @@
       <c r="AP24"/>
       <c r="AQ24"/>
     </row>
-    <row r="25" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1">
       <c r="A25" s="10"/>
       <c r="B25" s="8"/>
       <c r="C25" s="16"/>
@@ -2245,7 +2275,7 @@
       <c r="AP25"/>
       <c r="AQ25"/>
     </row>
-    <row r="26" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1">
       <c r="A26" s="10"/>
       <c r="B26" s="8"/>
       <c r="C26" s="16"/>
@@ -2290,7 +2320,7 @@
       <c r="AP26"/>
       <c r="AQ26"/>
     </row>
-    <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:43" s="2" customFormat="1" ht="18">
       <c r="A27" s="42" t="s">
         <v>20</v>
       </c>
@@ -2337,19 +2367,21 @@
       <c r="AP27"/>
       <c r="AQ27"/>
     </row>
-    <row r="28" spans="1:43" s="2" customFormat="1" ht="76" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:43" s="2" customFormat="1" ht="76" customHeight="1">
       <c r="A28" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="8"/>
+        <v>30</v>
+      </c>
+      <c r="B28" s="55" t="s">
+        <v>48</v>
+      </c>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
       <c r="E28" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H28" s="17"/>
       <c r="I28"/>
@@ -2388,7 +2420,7 @@
       <c r="AP28"/>
       <c r="AQ28"/>
     </row>
-    <row r="29" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1">
       <c r="A29" s="10"/>
       <c r="B29" s="8"/>
       <c r="C29" s="16"/>
@@ -2433,7 +2465,7 @@
       <c r="AP29"/>
       <c r="AQ29"/>
     </row>
-    <row r="30" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1">
       <c r="A30" s="10"/>
       <c r="B30" s="8"/>
       <c r="C30" s="16"/>
@@ -2478,7 +2510,7 @@
       <c r="AP30"/>
       <c r="AQ30"/>
     </row>
-    <row r="31" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1">
       <c r="A31" s="10"/>
       <c r="B31" s="8"/>
       <c r="C31" s="16"/>
@@ -2523,7 +2555,7 @@
       <c r="AP31"/>
       <c r="AQ31"/>
     </row>
-    <row r="32" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1">
       <c r="A32" s="10"/>
       <c r="B32" s="8"/>
       <c r="C32" s="16"/>
@@ -2568,7 +2600,7 @@
       <c r="AP32"/>
       <c r="AQ32"/>
     </row>
-    <row r="33" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1">
       <c r="A33" s="11"/>
       <c r="B33" s="9"/>
       <c r="C33" s="18"/>
@@ -2613,7 +2645,7 @@
       <c r="AP33"/>
       <c r="AQ33"/>
     </row>
-    <row r="34" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" thickBot="1">
       <c r="A34" s="12"/>
       <c r="B34" s="13"/>
       <c r="C34" s="20"/>
@@ -2658,7 +2690,7 @@
       <c r="AP34"/>
       <c r="AQ34"/>
     </row>
-    <row r="35" spans="1:43" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:43" s="2" customFormat="1" ht="14">
       <c r="A35" s="5"/>
       <c r="B35" s="3"/>
       <c r="C35" s="4"/>
@@ -2703,52 +2735,52 @@
       <c r="AP35"/>
       <c r="AQ35"/>
     </row>
-    <row r="36" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="37" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="38" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="39" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="40" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="49" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="50" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="51" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="52" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="53" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="54" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="55" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="56" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="57" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="58" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="59" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="60" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="61" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="62" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="63" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="64" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="65" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="66" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="67" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="68" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="69" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="70" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="71" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="72" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="73" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="74" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="75" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="76" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="77" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="78" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="79" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="80" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="81" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="1:43" customFormat="1"/>
+    <row r="37" spans="1:43" customFormat="1"/>
+    <row r="38" spans="1:43" customFormat="1"/>
+    <row r="39" spans="1:43" customFormat="1"/>
+    <row r="40" spans="1:43" customFormat="1"/>
+    <row r="41" spans="1:43" customFormat="1"/>
+    <row r="42" spans="1:43" customFormat="1"/>
+    <row r="43" spans="1:43" customFormat="1"/>
+    <row r="44" spans="1:43" customFormat="1"/>
+    <row r="45" spans="1:43" customFormat="1"/>
+    <row r="46" spans="1:43" customFormat="1"/>
+    <row r="47" spans="1:43" customFormat="1"/>
+    <row r="48" spans="1:43" customFormat="1"/>
+    <row r="49" customFormat="1"/>
+    <row r="50" customFormat="1"/>
+    <row r="51" customFormat="1"/>
+    <row r="52" customFormat="1"/>
+    <row r="53" customFormat="1"/>
+    <row r="54" customFormat="1"/>
+    <row r="55" customFormat="1"/>
+    <row r="56" customFormat="1"/>
+    <row r="57" customFormat="1"/>
+    <row r="58" customFormat="1"/>
+    <row r="59" customFormat="1"/>
+    <row r="60" customFormat="1"/>
+    <row r="61" customFormat="1"/>
+    <row r="62" customFormat="1"/>
+    <row r="63" customFormat="1"/>
+    <row r="64" customFormat="1"/>
+    <row r="65" customFormat="1"/>
+    <row r="66" customFormat="1"/>
+    <row r="67" customFormat="1"/>
+    <row r="68" customFormat="1"/>
+    <row r="69" customFormat="1"/>
+    <row r="70" customFormat="1"/>
+    <row r="71" customFormat="1"/>
+    <row r="72" customFormat="1"/>
+    <row r="73" customFormat="1"/>
+    <row r="74" customFormat="1"/>
+    <row r="75" customFormat="1"/>
+    <row r="76" customFormat="1"/>
+    <row r="77" customFormat="1"/>
+    <row r="78" customFormat="1"/>
+    <row r="79" customFormat="1"/>
+    <row r="80" customFormat="1"/>
+    <row r="81" customFormat="1"/>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="A6:A7"/>
